--- a/stock_predictor_ai/data/company_sentiment_ready/BXP_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/BXP_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7099"/>
+  <dimension ref="A1:B7106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57233,6 +57233,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7100">
+      <c r="A7100" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B7100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7101">
+      <c r="A7101" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B7101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7102">
+      <c r="A7102" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B7102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7103">
+      <c r="A7103" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B7103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7104">
+      <c r="A7104" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B7104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7105">
+      <c r="A7105" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B7105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7106">
+      <c r="A7106" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B7106" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
